--- a/data/trans_bre/P38B-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.05272273684527</v>
+        <v>4.036529152245709</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.12411000949552</v>
+        <v>4.95844518094755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.37779365343316</v>
+        <v>10.91394729524078</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.04990856087436939</v>
+        <v>0.05050337473614983</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06323697004998537</v>
+        <v>0.0611927304651723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1441778844796689</v>
+        <v>0.1511115042664198</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.62971113078039</v>
+        <v>10.75333553084055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.03741494461637</v>
+        <v>11.00911884099863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.30619742518626</v>
+        <v>22.36680086631375</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1375569587986085</v>
+        <v>0.141129857944416</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1442426101694819</v>
+        <v>0.1428481505232629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3487160002807134</v>
+        <v>0.3512477684958237</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>6.167465755703128</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.889565591285253</v>
+        <v>7.889565591285241</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07351705771500833</v>
@@ -709,7 +709,7 @@
         <v>0.07605811998552925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1018465842701687</v>
+        <v>0.1018465842701686</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.888098391187163</v>
+        <v>2.669638750713756</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.884909182241772</v>
+        <v>2.776427076640333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.178476894606495</v>
+        <v>3.92467902457626</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03528416894234802</v>
+        <v>0.03175965268450248</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03483627132565553</v>
+        <v>0.03353274498902425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05269245669447458</v>
+        <v>0.0504361646749277</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.484861041568173</v>
+        <v>9.127953108871004</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.611091060081161</v>
+        <v>9.37631927950979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.52050271950247</v>
+        <v>12.56782464383702</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1207327900645282</v>
+        <v>0.1160563406876155</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1220075675753064</v>
+        <v>0.1190206430786251</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1696537760738625</v>
+        <v>0.169598824089923</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>3.787225159701679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.10514693178071</v>
+        <v>2.105146931780721</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.05320150077776389</v>
@@ -791,7 +791,7 @@
         <v>0.04375299293223415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02480074794515773</v>
+        <v>0.02480074794515786</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.279707117202126</v>
+        <v>1.466664134084211</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6087889920077204</v>
+        <v>0.4622319250053099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.179424228481642</v>
+        <v>-1.546452336909071</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01503982532240794</v>
+        <v>0.01687742504018514</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.00659576653351249</v>
+        <v>0.004547435832824026</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01342781589379457</v>
+        <v>-0.01800867448569102</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.566859514011154</v>
+        <v>7.617311913067626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.140685554948875</v>
+        <v>7.201233705490755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.543434108433394</v>
+        <v>5.624580603133918</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.09102195751962862</v>
+        <v>0.09171203522559258</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08349413052865531</v>
+        <v>0.08518875863288845</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06687507211976333</v>
+        <v>0.06821977526685666</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.410066229204177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5.339915143077389</v>
+        <v>5.3399151430774</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02878654403798792</v>
@@ -873,7 +873,7 @@
         <v>0.02969904070541288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06356350198379664</v>
+        <v>0.06356350198379676</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.135106341881991</v>
+        <v>-2.412803366825849</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.361186865139123</v>
+        <v>-2.353347176557373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.128766922456713</v>
+        <v>1.824530500889943</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02460413575846858</v>
+        <v>-0.02795363290487384</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02866962151926497</v>
+        <v>-0.02747361180279992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02458583327621875</v>
+        <v>0.02087307076158527</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.677130525937345</v>
+        <v>6.899193025389833</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.302240185543635</v>
+        <v>7.397608953257087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.991870161068173</v>
+        <v>9.237003709525077</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08143300283627551</v>
+        <v>0.08407511019641525</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09422781849439588</v>
+        <v>0.0939564678113905</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1104416779923381</v>
+        <v>0.1127745160280933</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.0679642679752526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08115708845827047</v>
+        <v>0.08115708845827045</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.698070135315793</v>
+        <v>3.844249802122789</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.685470035526727</v>
+        <v>3.914957412379303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.499004001531105</v>
+        <v>4.632514321770766</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.04427216345714691</v>
+        <v>0.04636593385996777</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04440853156590076</v>
+        <v>0.04714328944611973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05564774131461241</v>
+        <v>0.05736074977467937</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.357720960130805</v>
+        <v>7.200011338759417</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.224895651833683</v>
+        <v>7.317087055375296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.58839756058687</v>
+        <v>8.711333063174452</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.09074878768547412</v>
+        <v>0.08903152034980648</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08928082058253821</v>
+        <v>0.09047161200649179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.109474191323271</v>
+        <v>0.1106892347138081</v>
       </c>
     </row>
     <row r="19">
